--- a/Fund_codes/基金数据买卖点.xlsx
+++ b/Fund_codes/基金数据买卖点.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="30240" windowHeight="14760" tabRatio="727" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="30240" windowHeight="14760" tabRatio="727" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="招商中证白酒指数(LOF)A" sheetId="1" state="visible" r:id="rId1"/>
@@ -5450,10 +5450,10 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
       <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5465,16 +5465,8 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
+      <charset val="134"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -5502,9 +5494,78 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
       <i val="1"/>
       <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -5519,70 +5580,9 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
       <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5607,7 +5607,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5619,19 +5685,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5643,97 +5697,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5751,13 +5715,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5769,7 +5757,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5802,7 +5802,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5822,22 +5837,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5858,21 +5858,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -5886,55 +5871,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="8"/>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="8"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2"/>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3"/>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0"/>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
   </cellStyleXfs>
@@ -6324,8 +6324,8 @@
   </sheetPr>
   <dimension ref="A1:F1789"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="0"/>
@@ -6366,13 +6366,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>1.0938</v>
+        <v>1.0941</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.3</v>
+        <v>-1.27</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.590000000000001</v>
+        <v>-3.56</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26915,13 +26915,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>1.9917</v>
+        <v>1.9915</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.73</v>
+        <v>-1.74</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.58</v>
+        <v>-3.59</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -38293,8 +38293,8 @@
   </sheetPr>
   <dimension ref="A1:F1450"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="0"/>
@@ -38337,12 +38337,12 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>2.1107</v>
+        <v>2.1127</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.99</v>
-      </c>
-      <c r="D3" t="n">
+        <v>-1.89</v>
+      </c>
+      <c r="D3" s="1" t="n">
         <v>-5.31</v>
       </c>
       <c r="E3" t="n">
